--- a/dashbord financeiro v1.xlsx
+++ b/dashbord financeiro v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WP-Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WP-Admin\Documents\Planilha_Dashbord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{416882F0-5678-44F1-B5F3-CA52CDB55FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01B714-ACB9-49C0-A79F-88025E719D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{543CBB27-A464-4303-8777-C003CBF5D61A}"/>
   </bookViews>
@@ -102,10 +102,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12447</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -121,7 +121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11572874" cy="5760000"/>
+          <a:ext cx="15800135" cy="7393780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -162,13 +162,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>250800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -183,8 +183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2689200" cy="5762626"/>
+          <a:off x="0" y="11906"/>
+          <a:ext cx="2679675" cy="7393780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -225,16 +225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502442</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84823</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -249,8 +249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="257175"/>
-          <a:ext cx="1514475" cy="828675"/>
+          <a:off x="2931317" y="280986"/>
+          <a:ext cx="2618475" cy="1195200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -294,16 +294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278604</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>97629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465823</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -318,8 +318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="257175"/>
-          <a:ext cx="1514475" cy="828675"/>
+          <a:off x="5743573" y="288129"/>
+          <a:ext cx="2616094" cy="1195200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -363,16 +363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515344</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -387,8 +387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="1285875"/>
-          <a:ext cx="3276600" cy="1781175"/>
+          <a:off x="2947988" y="1726404"/>
+          <a:ext cx="5461200" cy="2520000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -432,16 +432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502444</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>498675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -456,77 +456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="3276600"/>
-          <a:ext cx="3276600" cy="1781175"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D6B880-E66E-4F34-9ECB-2856B4FC7505}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7267575" y="180975"/>
-          <a:ext cx="1514475" cy="1352550"/>
+          <a:off x="2931319" y="4395786"/>
+          <a:ext cx="5461200" cy="2520000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -571,22 +502,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532498</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Retângulo: Cantos Arredondados 8">
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CF7DF5-26EF-486A-815B-05585C6C4A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D6B880-E66E-4F34-9ECB-2856B4FC7505}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,8 +525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="171450"/>
-          <a:ext cx="1514475" cy="1352550"/>
+          <a:off x="8843961" y="290512"/>
+          <a:ext cx="2618475" cy="2134800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -639,23 +570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>192881</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>382481</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Retângulo: Cantos Arredondados 9">
+        <xdr:cNvPr id="9" name="Retângulo: Cantos Arredondados 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B2203B-FD8A-4D46-A9EF-D2D4D0780B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CF7DF5-26EF-486A-815B-05585C6C4A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,8 +594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="1638301"/>
-          <a:ext cx="3276600" cy="1162050"/>
+          <a:off x="11730037" y="278605"/>
+          <a:ext cx="2618475" cy="2134800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -708,23 +639,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359567</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>366599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+        <xdr:cNvPr id="10" name="Retângulo: Cantos Arredondados 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ABAC2D-F16E-45C0-BAA8-40F8A06A3A76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B2203B-FD8A-4D46-A9EF-D2D4D0780B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,8 +663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286625" y="2952750"/>
-          <a:ext cx="3276600" cy="1781175"/>
+          <a:off x="8860630" y="2543175"/>
+          <a:ext cx="5472000" cy="1944000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -770,6 +701,891 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>373743</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ABAC2D-F16E-45C0-BAA8-40F8A06A3A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867774" y="4726782"/>
+          <a:ext cx="5472000" cy="2206800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397664</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314321</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CaixaDeTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872545BA-958E-4AD4-B443-0531C8F2543C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5862633" y="419095"/>
+          <a:ext cx="1738313" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Despesas do Mês</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461958</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>378615</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CB5A63-CF75-42BB-82AF-4DC3E0DF56AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963021" y="421478"/>
+          <a:ext cx="1738313" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Despesas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Mês</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>311941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228597</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CaixaDeTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B789AE8-14CA-418D-8E68-CA63E0DEF4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849097" y="409571"/>
+          <a:ext cx="1738313" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Despesas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> no Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30954</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CaixaDeTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18295030-A827-4844-AD4D-2C4A013C06FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067048" y="1857370"/>
+          <a:ext cx="2493171" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Análise</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Mensal</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>478627</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B53DCD4-D11B-48AB-8400-1D4278AD97F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8979690" y="2674141"/>
+          <a:ext cx="2664622" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Participação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> na Base Anual</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14285</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C250E90D-154A-4952-8793-84DF261353AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3050379" y="4526752"/>
+          <a:ext cx="2878933" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Detalamento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> de Despesas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6475B4E6-DA98-4AD9-BBB1-B3D3186C2327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8986834" y="4857748"/>
+          <a:ext cx="2407447" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Receitas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> e Despesas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14283</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538159</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CaixaDeTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20BBBC7-3A71-4406-9EBD-D16F4B24655D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3050377" y="411952"/>
+          <a:ext cx="1738313" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Saldo do Mês</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501506</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Gráfico 22" descr="Gráfico de pizza com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C41D92-B382-48BA-645D-D8108DEEB69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906" y="631028"/>
+          <a:ext cx="489600" cy="489600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CaixaDeTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72109B3D-0123-4900-AFD9-E0DBE510C06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488156" y="631028"/>
+          <a:ext cx="1940718" cy="595312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dashbord Finanças Pessoais</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1097,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20B5EC-4228-40D8-A76C-DABF54851E6B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
